--- a/Buding_Primary_TestCases/布丁优惠券V3.7测试用例(一级).xlsx
+++ b/Buding_Primary_TestCases/布丁优惠券V3.7测试用例(一级).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="1320" windowWidth="22340" windowHeight="13620" tabRatio="631" activeTab="3"/>
+    <workbookView xWindow="1260" yWindow="180" windowWidth="24560" windowHeight="15880" tabRatio="631" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeList" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>测试项</t>
   </si>
@@ -131,12 +131,6 @@
   </si>
   <si>
     <t>连接功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"测试设备已联网(不关心网络环境)
-已连接麦当来Y5WIFI
-当前选择城市为支持列表中城市"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -154,14 +148,47 @@
   </si>
   <si>
     <t>1. 进入“一键WIFI”页面
-2. 点击“连接”按钮时，发出音效</t>
+2. 点击“连接”按钮时，发出音效；
+页面上方提示信息显示动画效果，并进行逐条检查；
+检查中状态显示“。。。”动画；
+在”是否已打开WIFI开关“后显示失败“叉子”icon；1S后显示错误信息，“小伙伴，你还没打开WIFI”；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 进入“一键WIFI”页面
 2. 点击“连接”按钮时，发出音效；
-页面上方提示信息显示动画，逐条检查条件；
-校验失败后，页面显示错误提示“小伙伴，你还没打开WIFI”等错误提示</t>
+页面上方提示信息显示动画效果，并进行逐条检查；
+检查中状态显示“。。。”动画；
+在”是否已打开WIFI开关“及“是否已连接到麦当劳WIFI….”后显示成功“对勾”icon；1S后显示连接成功信息，“连接成功”；
+显示“马上分享”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"测试设备已联网(不关心网络环境)
+已连接麦当来Y5 WIFI
+当前选择城市为支持列表中城市"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+未连接麦当劳Y5 WIFI
+当前选择城市为支持列表中城市"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“发现”页面，点击“一键WIFI”入口
+2. 点击“开始”按钮，查看
+3. 点击“返回”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“一键WIFI”页面
+2. 点击“连接”按钮时，发出音效；
+页面上方提示信息显示动画效果，并进行逐条检查；
+检查中状态显示“。。。”动画；
+在”是否已打开WIFI开关“及“是否已连接到麦当劳WIFI….”后显示成功“对勾”icon；1S后显示连接成功信息，“连接成功”；
+显示“马上分享”按钮
+3. “一键WIFI”入口显示“已连接”提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +339,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,8 +391,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +477,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -435,29 +513,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="27">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -466,6 +532,11 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -474,6 +545,11 @@
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -907,47 +983,47 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="23">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="23">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="23">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="23">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28">
-      <c r="A6" s="23">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
-      <c r="B7" s="28"/>
+      <c r="B7" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1004,7 +1080,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="10"/>
@@ -1015,7 +1091,7 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="19"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1123,7 +1199,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="9"/>
@@ -1134,7 +1210,7 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="20"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -1143,7 +1219,7 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="20"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -1152,7 +1228,7 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -1185,10 +1261,10 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="H9" s="21"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="H10" s="21"/>
+      <c r="H10" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1234,14 +1310,15 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="61.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="1" customWidth="1"/>
@@ -1272,7 +1349,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="60">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="15"/>
@@ -1291,7 +1368,7 @@
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="90">
-      <c r="A3" s="20"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15" t="s">
         <v>22</v>
@@ -1303,100 +1380,107 @@
         <v>25</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="60">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:7" ht="90">
+      <c r="A4" s="27"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>28</v>
+      <c r="E4" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="120">
+      <c r="A5" s="27"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="90">
-      <c r="A5" s="20"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="105">
+      <c r="A6" s="27"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" s="12" customFormat="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="25"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" s="12" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" s="12" customFormat="1" ht="132" customHeight="1">
-      <c r="A9" s="20"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" s="12" customFormat="1" ht="99" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" s="12" customFormat="1" ht="99" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="E9:E11"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
@@ -1468,7 +1552,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="9"/>
@@ -1479,7 +1563,7 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="22"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -1488,7 +1572,7 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="22"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -1497,7 +1581,7 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="22"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -1506,7 +1590,7 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
@@ -1515,7 +1599,7 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>

--- a/Buding_Primary_TestCases/布丁优惠券V3.7测试用例(一级).xlsx
+++ b/Buding_Primary_TestCases/布丁优惠券V3.7测试用例(一级).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="180" windowWidth="24560" windowHeight="15880" tabRatio="631" activeTab="3"/>
+    <workbookView xWindow="1260" yWindow="180" windowWidth="26540" windowHeight="15880" tabRatio="631" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeList" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>测试项</t>
   </si>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发现页面展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“麦当劳一键WiFi”页面展示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +123,6 @@
   <si>
     <t>1. 进入“发现”页面，点击“一键WIFI”入口
 2. 查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -144,14 +136,6 @@
 页面中上部显示“温馨提示”，内容显示正确，文字无错别字，格式无错乱；
 页面中部显示“开始”按钮，下方显示提示文字“点击按钮，链接麦当劳WIFI”；
 页面底部显示成功连接人数信息，及免责声明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 进入“一键WIFI”页面
-2. 点击“连接”按钮时，发出音效；
-页面上方提示信息显示动画效果，并进行逐条检查；
-检查中状态显示“。。。”动画；
-在”是否已打开WIFI开关“后显示失败“叉子”icon；1S后显示错误信息，“小伙伴，你还没打开WIFI”；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,25 +154,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试设备已联网(不关心网络环境)
-未连接麦当劳Y5 WIFI
-当前选择城市为支持列表中城市"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 进入“发现”页面，点击“一键WIFI”入口
 2. 点击“开始”按钮，查看
 3. 点击“返回”按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>“发现"页面展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”麦当劳一键WIFI“连接功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 进入“一键WIFI”页面
 2. 点击“连接”按钮时，发出音效；
 页面上方提示信息显示动画效果，并进行逐条检查；
-检查中状态显示“。。。”动画；
+检查中状态显示“...”动画；
+在”是否已打开WIFI开关“后显示失败“叉子”icon；1S后显示错误信息，“小伙伴，你还没打开WIFI”；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“一键WIFI”页面
+2. 点击“连接”按钮时，发出音效；
+页面上方提示信息显示动画效果，并进行逐条检查；
+检查中状态显示“...”动画；
 在”是否已打开WIFI开关“及“是否已连接到麦当劳WIFI….”后显示成功“对勾”icon；1S后显示连接成功信息，“连接成功”；
 显示“马上分享”按钮
 3. “一键WIFI”入口显示“已连接”提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接成功后，分享功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+已连接麦当劳Y5 WIFI
+当前选择城市为支持列表中城市"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 成功连接麦当劳WIFI，页面显示”连接成功“提示
+2. 弹出分享方式选择菜单
+3. 弹出微信分享预览对话框，显示预置分享文案
+4. 成功分享，点击该消息，如果已安装优惠券，则启动优惠券；如果未安装，则进入下载页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"测试设备已联网(不关心网络环境)
+已连接麦当来Y5 WIFI
+当前选择城市为不支持列表中城市"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入“一键WIFI”页面
+2. 页面显示错误提示信息”小伙伴，当前城市还未开通此功能呢“；
+原有”开始“按钮隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>在设置入口增加”评价一下“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击应用icon
+2. 点击首页麦当劳优惠券入口
+3. 点击右下角Passbook入口
+4. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用首页
+2. 进入麦当劳优惠券列表页面
+3. 进入”发现“页面
+4. 页面显示“麦当劳一键WiFi”及“发现精品应用”入口；
+“麦当劳一键WiFi”入口显示Beta标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 执行用例F007
+2. 点击”马上分享 “按钮
+3. 选择”微信好友“方式
+4. 点击”发送“，查看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,12 +307,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -259,9 +325,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.3"/>
-      <color theme="1"/>
-      <name val="Abadi MT Condensed Extra Bold"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -339,90 +407,138 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,30 +590,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -510,20 +608,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="43">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -537,6 +641,14 @@
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -550,6 +662,14 @@
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -965,65 +1085,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="64.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="17"/>
+    <col min="2" max="2" width="64.1640625" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="18">
+    <row r="2" spans="1:2">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="18">
+    <row r="3" spans="1:2">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="18">
+    <row r="4" spans="1:2">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="18">
+    <row r="5" spans="1:2">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28">
-      <c r="A6" s="18">
+    <row r="6" spans="1:2" ht="32">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17">
-      <c r="B7" s="23"/>
+      <c r="B6" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1080,7 +1207,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="10"/>
@@ -1091,7 +1218,7 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="26"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1199,7 +1326,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="9"/>
@@ -1210,7 +1337,7 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -1219,7 +1346,7 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="27"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -1228,7 +1355,7 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="27"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -1261,10 +1388,10 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="H9" s="28"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="H10" s="28"/>
+      <c r="H10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1307,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1349,14 +1476,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="60">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="16" t="s">
@@ -1367,120 +1496,135 @@
       </c>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="90">
-      <c r="A3" s="27"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="16" t="s">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="75">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="90">
+      <c r="A4" s="21"/>
+      <c r="B4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="90">
+      <c r="A5" s="21"/>
+      <c r="B5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="60">
+      <c r="A6" s="21"/>
+      <c r="B6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="120">
+      <c r="A7" s="21"/>
+      <c r="B7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" ht="90">
-      <c r="A4" s="27"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="E7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="105">
+      <c r="A8" s="21"/>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="120">
-      <c r="A5" s="27"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="12">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="105">
-      <c r="A6" s="27"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="132" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="99" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="99" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="C4:C6"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
@@ -1495,7 +1639,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>"N,F,P"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D2 D4:D1048576">
       <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1552,7 +1696,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="9"/>
@@ -1563,7 +1707,7 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="29"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -1572,7 +1716,7 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="29"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -1581,7 +1725,7 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="29"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -1590,7 +1734,7 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="29"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
@@ -1599,7 +1743,7 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="29"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
